--- a/m1/u1/ejercicios/20191030/Funciones de Texto/Funciones de texto.xlsx
+++ b/m1/u1/ejercicios/20191030/Funciones de Texto/Funciones de texto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Cursos\Excel\Material práctico\Textos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191030\Funciones de Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15195" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Alumnos">Hoja1!$B$2:$B$432</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -10382,7 +10382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -10449,7 +10449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10467,8 +10467,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10490,16 +10491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10529,7 +10530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="276225"/>
+          <a:off x="15211425" y="104775"/>
           <a:ext cx="2838450" cy="6505575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10571,16 +10572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2085975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10589,7 +10590,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="1609726"/>
+          <a:off x="12153900" y="828676"/>
           <a:ext cx="2428875" cy="2809874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10984,20 +10985,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E432"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>182</v>
       </c>
@@ -11018,8 +11019,14 @@
       <c r="C2" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B2)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Abad Sarraga, Lorena                                      </v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>184</v>
       </c>
@@ -11029,8 +11036,12 @@
       <c r="C3" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B3)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Abascal Cabrera, Noelia                                   </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>186</v>
       </c>
@@ -11040,8 +11051,12 @@
       <c r="C4" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B4)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Acebo Moreno, Beatriz                                     </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11051,8 +11066,12 @@
       <c r="C5" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B5)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Aguazo Callejo, Victoriano                                </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>190</v>
       </c>
@@ -11062,8 +11081,12 @@
       <c r="C6" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B6)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Agudo Gómez, María Ángeles</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>192</v>
       </c>
@@ -11073,8 +11096,12 @@
       <c r="C7" s="5">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B7)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Agudo Gutierrez, Aquilina                                 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
@@ -11084,8 +11111,12 @@
       <c r="C8" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B8)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Agudo Gutierrez, Maria Remedios                           </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -11095,8 +11126,12 @@
       <c r="C9" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B9)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Aguilera Rama, Maria Dolores                              </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -11106,9 +11141,12 @@
       <c r="C10" s="5">
         <v>5.65</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B10)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Agundez Garcia, Maria Elena                               </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>200</v>
       </c>
@@ -11118,8 +11156,12 @@
       <c r="C11" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B11)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alba Gallardo, Teresa                                     </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>202</v>
       </c>
@@ -11129,8 +11171,12 @@
       <c r="C12" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B12)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alejos Fuentes, Maria Blanca                              </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>204</v>
       </c>
@@ -11140,8 +11186,12 @@
       <c r="C13" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B13)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alonso Espinosa, Luis                                     </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>206</v>
       </c>
@@ -11151,8 +11201,12 @@
       <c r="C14" s="5">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B14)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alonso Mancha, Maria Concepción                            </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>208</v>
       </c>
@@ -11162,8 +11216,12 @@
       <c r="C15" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B15)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alonso Mantecon, Maria Isabel                             </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>210</v>
       </c>
@@ -11173,8 +11231,12 @@
       <c r="C16" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B16)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alvarez Martin, Gema                                      </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
@@ -11184,8 +11246,12 @@
       <c r="C17" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B17)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alvarez Seco, Purificacion                                </v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>214</v>
       </c>
@@ -11195,8 +11261,12 @@
       <c r="C18" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B18)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Alvaro Domingo, Carmen Yolanda                            </v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>216</v>
       </c>
@@ -11206,8 +11276,12 @@
       <c r="C19" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B19)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Amieva De La Vega, Roberto                                </v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>218</v>
       </c>
@@ -11217,8 +11291,12 @@
       <c r="C20" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B20)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Andres Pedrosa, Raquel                                    </v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>220</v>
       </c>
@@ -11228,8 +11306,12 @@
       <c r="C21" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B21)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Anton Grande, Ana Belen                                   </v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>222</v>
       </c>
@@ -11239,8 +11321,12 @@
       <c r="C22" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B22)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Aragon De La Parte, Margarita                             </v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>224</v>
       </c>
@@ -11250,8 +11336,12 @@
       <c r="C23" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B23)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arce Amutio, Maria Isabel                                 </v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>226</v>
       </c>
@@ -11261,8 +11351,12 @@
       <c r="C24" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B24)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arenal Martin, Maria Jose                                 </v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>228</v>
       </c>
@@ -11272,8 +11366,12 @@
       <c r="C25" s="5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B25)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arenas Granja, Gema                                       </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>230</v>
       </c>
@@ -11283,8 +11381,12 @@
       <c r="C26" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B26)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arias Gomez, Elena Maria                                  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>232</v>
       </c>
@@ -11294,8 +11396,12 @@
       <c r="C27" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B27)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arranz Yoldi, Maria Begoña                                </v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>234</v>
       </c>
@@ -11305,8 +11411,12 @@
       <c r="C28" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B28)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arrieta Canales, Carolina                                 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>236</v>
       </c>
@@ -11316,8 +11426,12 @@
       <c r="C29" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B29)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arriola Saiz, Silvia                                      </v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>238</v>
       </c>
@@ -11327,8 +11441,12 @@
       <c r="C30" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B30)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Arroyo Gutierrez, Asuncion                                </v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>240</v>
       </c>
@@ -11338,8 +11456,12 @@
       <c r="C31" s="5">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B31)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Astuy Saiz, M. Carmen                                     </v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>242</v>
       </c>
@@ -11349,8 +11471,12 @@
       <c r="C32" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B32)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bada Garcia, Maria Lourdes                                </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>244</v>
       </c>
@@ -11360,8 +11486,12 @@
       <c r="C33" s="5">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B33)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bahillo Garcia, Maria Josefa                              </v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>246</v>
       </c>
@@ -11371,8 +11501,12 @@
       <c r="C34" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B34)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Balbas Hernandez, Julia                                   </v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>248</v>
       </c>
@@ -11382,8 +11516,12 @@
       <c r="C35" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B35)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Balza Carral, Rafaela                                     </v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>250</v>
       </c>
@@ -11393,8 +11531,12 @@
       <c r="C36" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B36)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Baquero Mier, Maria Reyes                                 </v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>252</v>
       </c>
@@ -11404,8 +11546,12 @@
       <c r="C37" s="5">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B37)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Barcena Estebanez, Ines Sandra                            </v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>254</v>
       </c>
@@ -11415,8 +11561,12 @@
       <c r="C38" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B38)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Barcena Iglesias, Maria Paz                               </v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>256</v>
       </c>
@@ -11426,8 +11576,12 @@
       <c r="C39" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B39)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Barcina Amezaga, Maria Jose                               </v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>258</v>
       </c>
@@ -11437,8 +11591,12 @@
       <c r="C40" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B40)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Barquin San Martin, Pilar                                 </v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>260</v>
       </c>
@@ -11448,8 +11606,12 @@
       <c r="C41" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B41)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Barrio Puente, Inmaculada                                 </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>262</v>
       </c>
@@ -11459,8 +11621,12 @@
       <c r="C42" s="5">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B42)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bedia Mora, Victoria Maria                                </v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>264</v>
       </c>
@@ -11470,8 +11636,12 @@
       <c r="C43" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B43)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bedia Navarro, Maria Asuncion                             </v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>266</v>
       </c>
@@ -11481,8 +11651,12 @@
       <c r="C44" s="5">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B44)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bedia Ordoñez, Maria Rosa                                 </v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>268</v>
       </c>
@@ -11492,8 +11666,12 @@
       <c r="C45" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B45)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bejerano Garcia, Maria Ramona                             </v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>270</v>
       </c>
@@ -11503,8 +11681,12 @@
       <c r="C46" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B46)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Benito Castañera, Maria Angeles                           </v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>272</v>
       </c>
@@ -11514,8 +11696,12 @@
       <c r="C47" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B47)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Benito Gonzalez, Silvia                                   </v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>274</v>
       </c>
@@ -11525,8 +11711,12 @@
       <c r="C48" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B48)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bezanilla Bezanilla, Maria Del Mar                        </v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>276</v>
       </c>
@@ -11536,8 +11726,12 @@
       <c r="C49" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B49)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bielsa Nogues, Jose Antonio                               </v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>278</v>
       </c>
@@ -11547,8 +11741,12 @@
       <c r="C50" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B50)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Blanco Garcia, Maria                                      </v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>280</v>
       </c>
@@ -11558,8 +11756,12 @@
       <c r="C51" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B51)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Blanco Garcia, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>282</v>
       </c>
@@ -11569,8 +11771,12 @@
       <c r="C52" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B52)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Boada De La Serna, Maria Del Mar                          </v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>284</v>
       </c>
@@ -11580,8 +11786,12 @@
       <c r="C53" s="5">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B53)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bolado Incera, Begoña                                     </v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
@@ -11591,8 +11801,12 @@
       <c r="C54" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B54)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bolado Verdugo, Maria Luz                                 </v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>288</v>
       </c>
@@ -11602,8 +11816,12 @@
       <c r="C55" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B55)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bravo Ledo, Eloina                                        </v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>290</v>
       </c>
@@ -11613,8 +11831,12 @@
       <c r="C56" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B56)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bueno Gutierrez, Maria Teresa                             </v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>292</v>
       </c>
@@ -11624,8 +11846,12 @@
       <c r="C57" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B57)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bueno Mena, Nuria                                         </v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>294</v>
       </c>
@@ -11635,8 +11861,12 @@
       <c r="C58" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B58)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Burriel Lou, Maria Pilar                                  </v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>296</v>
       </c>
@@ -11646,8 +11876,12 @@
       <c r="C59" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B59)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Bustamante Cruz, Maria Jose                               </v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>298</v>
       </c>
@@ -11657,8 +11891,12 @@
       <c r="C60" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B60)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Caballero Cortes, Maria Jose                              </v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>300</v>
       </c>
@@ -11668,8 +11906,12 @@
       <c r="C61" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B61)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cabarga Trueba, Maria Lucia                               </v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>302</v>
       </c>
@@ -11679,8 +11921,12 @@
       <c r="C62" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B62)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cadelo Sanchez, Virginia                                  </v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>304</v>
       </c>
@@ -11690,8 +11936,12 @@
       <c r="C63" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B63)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Calderon Lezcano, Maria Angeles                           </v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>306</v>
       </c>
@@ -11701,8 +11951,12 @@
       <c r="C64" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B64)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Calleja Del Rio, Monica                                   </v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>308</v>
       </c>
@@ -11712,8 +11966,12 @@
       <c r="C65" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B65)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Calleja Ortiz, Maria Rosario                              </v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>310</v>
       </c>
@@ -11723,8 +11981,12 @@
       <c r="C66" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B66)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Calvo Castillo, Juan Antonio                              </v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>312</v>
       </c>
@@ -11734,8 +11996,12 @@
       <c r="C67" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B67)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Camacho Gonzalo, Ana                                      </v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>314</v>
       </c>
@@ -11745,8 +12011,12 @@
       <c r="C68" s="5">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B68)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Camacho Gonzalo, Maria Angeles                            </v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>316</v>
       </c>
@@ -11756,8 +12026,12 @@
       <c r="C69" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B69)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cameno Bermejo, Mercedes                                  </v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>318</v>
       </c>
@@ -11767,8 +12041,12 @@
       <c r="C70" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B70)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Camino Renteria, Cristina                                 </v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>320</v>
       </c>
@@ -11778,8 +12056,12 @@
       <c r="C71" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B71)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Campo Campo, Maria Jesus                                  </v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>322</v>
       </c>
@@ -11789,8 +12071,12 @@
       <c r="C72" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B72)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Campo Campo, Maria Margarita                              </v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>324</v>
       </c>
@@ -11800,8 +12086,12 @@
       <c r="C73" s="5">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B73)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Campo Negrete, Ana                                        </v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>326</v>
       </c>
@@ -11811,8 +12101,12 @@
       <c r="C74" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B74)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Campo San Sebastian, Pilar                                </v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>328</v>
       </c>
@@ -11822,8 +12116,12 @@
       <c r="C75" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B75)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Campo Santayana, Miguel Angel                             </v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>330</v>
       </c>
@@ -11833,8 +12131,12 @@
       <c r="C76" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B76)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Canales Diego, Josefa                                     </v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>332</v>
       </c>
@@ -11844,8 +12146,12 @@
       <c r="C77" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B77)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cano Martinez, Julio Jose                                 </v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>334</v>
       </c>
@@ -11855,8 +12161,12 @@
       <c r="C78" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B78)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cano Mier, Montserrat                                     </v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>336</v>
       </c>
@@ -11866,8 +12176,12 @@
       <c r="C79" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B79)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Carbajales Mesa, Rosa Maria                               </v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>338</v>
       </c>
@@ -11877,8 +12191,12 @@
       <c r="C80" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B80)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Castillo Cobo, Asuncion Del                               </v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>340</v>
       </c>
@@ -11888,8 +12206,12 @@
       <c r="C81" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B81)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Castillo Gonzalez, Maria Josefa                           </v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>342</v>
       </c>
@@ -11899,8 +12221,12 @@
       <c r="C82" s="5">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B82)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Castillo Isidro, Gema C. Del                              </v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>344</v>
       </c>
@@ -11910,8 +12236,12 @@
       <c r="C83" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B83)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Castillo Montequin, Begoña                                </v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>346</v>
       </c>
@@ -11921,8 +12251,12 @@
       <c r="C84" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B84)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Castro Gonzalez, Maria Del Mar                            </v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>348</v>
       </c>
@@ -11932,8 +12266,12 @@
       <c r="C85" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B85)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cerro Aparicio, Noemi Del                                 </v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>350</v>
       </c>
@@ -11943,8 +12281,12 @@
       <c r="C86" s="5">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B86)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cirre Perez, Concepcion                                   </v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>352</v>
       </c>
@@ -11954,8 +12296,12 @@
       <c r="C87" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B87)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cobo Escudero,  Ma  Isabel                                </v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>354</v>
       </c>
@@ -11965,8 +12311,12 @@
       <c r="C88" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B88)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cobo San Emeterio, Ana Belen                              </v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>356</v>
       </c>
@@ -11976,8 +12326,12 @@
       <c r="C89" s="5">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B89)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Colina Fernandez, Luis                                    </v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>358</v>
       </c>
@@ -11987,8 +12341,12 @@
       <c r="C90" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B90)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Collado Nieves, Maria Fe                                  </v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>360</v>
       </c>
@@ -11998,8 +12356,12 @@
       <c r="C91" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B91)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Condette Gomez, Monique Marie                             </v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>362</v>
       </c>
@@ -12009,8 +12371,12 @@
       <c r="C92" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B92)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Corral Estevez, Sebastiana                                </v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>364</v>
       </c>
@@ -12020,8 +12386,12 @@
       <c r="C93" s="5">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B93)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Correa Sanz, Carmen                                       </v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>366</v>
       </c>
@@ -12031,8 +12401,12 @@
       <c r="C94" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B94)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cortes Terradillos, M. Rosario                            </v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>368</v>
       </c>
@@ -12042,8 +12416,12 @@
       <c r="C95" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B95)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cos Barreda, Rosa Emilia De                               </v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>370</v>
       </c>
@@ -12053,8 +12431,12 @@
       <c r="C96" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B96)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cos Cobo, Ramona De                                       </v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>372</v>
       </c>
@@ -12064,8 +12446,12 @@
       <c r="C97" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B97)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cos Rada, Josefa                                          </v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>374</v>
       </c>
@@ -12075,8 +12461,12 @@
       <c r="C98" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B98)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cosio Linares, Maria Josefa                               </v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>376</v>
       </c>
@@ -12086,8 +12476,12 @@
       <c r="C99" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B99)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cotera Gonzalez, Eva                                      </v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>378</v>
       </c>
@@ -12097,8 +12491,12 @@
       <c r="C100" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B100)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cotera Peña, Maria Reyes                                  </v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>380</v>
       </c>
@@ -12108,8 +12506,12 @@
       <c r="C101" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B101)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Crespo Olavarria, Luis Angel                              </v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>382</v>
       </c>
@@ -12119,8 +12521,12 @@
       <c r="C102" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B102)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Crespo Salmon, Ana                                        </v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>384</v>
       </c>
@@ -12130,8 +12536,12 @@
       <c r="C103" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B103)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cruz Gomez, Celia                                         </v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>386</v>
       </c>
@@ -12141,8 +12551,12 @@
       <c r="C104" s="5">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B104)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cruz Gutierrez, Ana                                       </v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>388</v>
       </c>
@@ -12152,8 +12566,12 @@
       <c r="C105" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B105)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cuartas Bueno, Maria Cristina                             </v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>390</v>
       </c>
@@ -12163,8 +12581,12 @@
       <c r="C106" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B106)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cuerno Garcia, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>392</v>
       </c>
@@ -12174,8 +12596,12 @@
       <c r="C107" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B107)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cuesta Arenal, Eva Maria                                  </v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>394</v>
       </c>
@@ -12185,8 +12611,12 @@
       <c r="C108" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B108)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cuesta Peña, Raquel                                       </v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>396</v>
       </c>
@@ -12196,8 +12626,12 @@
       <c r="C109" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B109)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Cuetos Martinez, Natalia                                  </v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>398</v>
       </c>
@@ -12207,8 +12641,12 @@
       <c r="C110" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B110)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz Avila, Fernando                                      </v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>400</v>
       </c>
@@ -12218,8 +12656,12 @@
       <c r="C111" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B111)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz Gonzalez, Sandra                                     </v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>402</v>
       </c>
@@ -12229,8 +12671,12 @@
       <c r="C112" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B112)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz Oviaño, Juan Francisco                               </v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>404</v>
       </c>
@@ -12240,8 +12686,12 @@
       <c r="C113" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B113)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz San Julian, Maria                                    </v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>406</v>
       </c>
@@ -12251,8 +12701,12 @@
       <c r="C114" s="5">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B114)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz San Julian, Maria Teresa                             </v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>408</v>
       </c>
@@ -12262,8 +12716,12 @@
       <c r="C115" s="5">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B115)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diaz Sañudo, Maria Dolores                                </v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>410</v>
       </c>
@@ -12273,8 +12731,12 @@
       <c r="C116" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B116)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Diez Merino, Cristina                                     </v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>412</v>
       </c>
@@ -12284,8 +12746,12 @@
       <c r="C117" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B117)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Dizy Lopez, Maria Rosario                                 </v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>414</v>
       </c>
@@ -12295,8 +12761,12 @@
       <c r="C118" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B118)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Doce Quintilla, Iban Nicolas                              </v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>416</v>
       </c>
@@ -12306,8 +12776,12 @@
       <c r="C119" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B119)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Echevarria Monje, Julia                                   </v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>418</v>
       </c>
@@ -12317,8 +12791,12 @@
       <c r="C120" s="5">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B120)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Emeric Silva, Gabriel                                     </v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>420</v>
       </c>
@@ -12328,8 +12806,12 @@
       <c r="C121" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B121)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Escobar Diez, Maria Luisa                                 </v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>422</v>
       </c>
@@ -12339,8 +12821,12 @@
       <c r="C122" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B122)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Escobar Reyes, Francisca                                  </v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>424</v>
       </c>
@@ -12350,8 +12836,12 @@
       <c r="C123" s="5">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B123)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Escudero Gomez, Adela                                     </v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>426</v>
       </c>
@@ -12361,8 +12851,12 @@
       <c r="C124" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B124)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Exposito Gutierrez, Maria Dolores                         </v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>428</v>
       </c>
@@ -12372,8 +12866,12 @@
       <c r="C125" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B125)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Exposito Merodio, Laura                                   </v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>430</v>
       </c>
@@ -12383,8 +12881,12 @@
       <c r="C126" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B126)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Abascal, Ramon                                  </v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>432</v>
       </c>
@@ -12394,8 +12896,12 @@
       <c r="C127" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B127)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Alonso, Maria Olga                              </v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>434</v>
       </c>
@@ -12405,8 +12911,12 @@
       <c r="C128" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B128)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez De Alba Alonso, Vanessa                         </v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>436</v>
       </c>
@@ -12416,8 +12926,12 @@
       <c r="C129" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B129)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Fernandez, Maria Belen                          </v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>438</v>
       </c>
@@ -12427,8 +12941,12 @@
       <c r="C130" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B130)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Fuente, M. Angeles                              </v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>440</v>
       </c>
@@ -12438,8 +12956,12 @@
       <c r="C131" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B131)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Garcia Del Rivero, Cristina Maria               </v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>442</v>
       </c>
@@ -12449,8 +12971,12 @@
       <c r="C132" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B132)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Garcia, Maria Pilar                             </v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>444</v>
       </c>
@@ -12460,8 +12986,12 @@
       <c r="C133" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B133)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Gomez, Beatriz                                  </v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>446</v>
       </c>
@@ -12471,8 +13001,12 @@
       <c r="C134" s="5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B134)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Herrera, Blanca                                 </v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>448</v>
       </c>
@@ -12482,8 +13016,12 @@
       <c r="C135" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B135)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Llanos, Graciela Maria                          </v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>450</v>
       </c>
@@ -12493,8 +13031,12 @@
       <c r="C136" s="5">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B136)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Martin, Consolacion                             </v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>452</v>
       </c>
@@ -12504,8 +13046,12 @@
       <c r="C137" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B137)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Rodriguez, Francisco                            </v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>454</v>
       </c>
@@ -12515,8 +13061,12 @@
       <c r="C138" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B138)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Fernandez Rodriguez, Gloria                               </v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>456</v>
       </c>
@@ -12526,8 +13076,12 @@
       <c r="C139" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E139" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B139)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ferroni Martinez, Rosa Ana                                </v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>458</v>
       </c>
@@ -12537,8 +13091,12 @@
       <c r="C140" s="5">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E140" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B140)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Frechilla Arocha, Carmen Mercedes                         </v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>460</v>
       </c>
@@ -12548,8 +13106,12 @@
       <c r="C141" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E141" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B141)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Frias Fernandez, Monica                                   </v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>462</v>
       </c>
@@ -12559,8 +13121,12 @@
       <c r="C142" s="5">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B142)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Galaron Lopez, Maria Teresa                               </v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>464</v>
       </c>
@@ -12570,8 +13136,12 @@
       <c r="C143" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B143)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gallardo Aja, Ana Alicia                                  </v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>466</v>
       </c>
@@ -12581,8 +13151,12 @@
       <c r="C144" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B144)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gallo Carral, Olga                                        </v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>468</v>
       </c>
@@ -12592,8 +13166,12 @@
       <c r="C145" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B145)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gandara Pescador, Esperanza                               </v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>470</v>
       </c>
@@ -12603,8 +13181,12 @@
       <c r="C146" s="5">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B146)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gandarillas Perez, Maria Yolanda                          </v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>472</v>
       </c>
@@ -12614,8 +13196,12 @@
       <c r="C147" s="5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B147)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gaño Muela, Rosalia                                       </v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>474</v>
       </c>
@@ -12625,8 +13211,12 @@
       <c r="C148" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B148)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Escudero, Lourdes                                  </v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>476</v>
       </c>
@@ -12636,8 +13226,12 @@
       <c r="C149" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B149)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Gonzalez, Carmen Maria                             </v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>478</v>
       </c>
@@ -12647,8 +13241,12 @@
       <c r="C150" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B150)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Gutierrez, Sonia                                   </v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>480</v>
       </c>
@@ -12658,8 +13256,12 @@
       <c r="C151" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E151" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B151)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Leon, Florinda                                     </v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>482</v>
       </c>
@@ -12669,8 +13271,12 @@
       <c r="C152" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B152)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Lopez, Francisco                                </v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>484</v>
       </c>
@@ -12680,8 +13286,12 @@
       <c r="C153" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B153)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Lopez, Maria Julia                                 </v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>486</v>
       </c>
@@ -12691,8 +13301,12 @@
       <c r="C154" s="5">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B154)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Martin, Maria Pilar                                </v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>488</v>
       </c>
@@ -12702,8 +13316,12 @@
       <c r="C155" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E155" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B155)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Martinez, Maribel                                  </v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>490</v>
       </c>
@@ -12713,8 +13331,12 @@
       <c r="C156" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E156" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B156)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Marugan, Maria Elena                               </v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>492</v>
       </c>
@@ -12724,8 +13346,12 @@
       <c r="C157" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B157)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Marugan, Susana                                    </v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>494</v>
       </c>
@@ -12735,8 +13361,12 @@
       <c r="C158" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B158)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Mediavilla, Maria Carmen                           </v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>496</v>
       </c>
@@ -12746,8 +13376,12 @@
       <c r="C159" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E159" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B159)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Mediavilla, Maria Dolores                          </v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>498</v>
       </c>
@@ -12757,8 +13391,12 @@
       <c r="C160" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B160)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Mediavilla, Maria Piedad                           </v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>500</v>
       </c>
@@ -12768,8 +13406,12 @@
       <c r="C161" s="5">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E161" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B161)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Ortega, Ana Maria                                  </v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>502</v>
       </c>
@@ -12779,8 +13421,12 @@
       <c r="C162" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B162)),CHAR(160),""))</f>
+        <v xml:space="preserve"> García Pérez, Josefa</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>504</v>
       </c>
@@ -12790,8 +13436,12 @@
       <c r="C163" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E163" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B163)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Roman, Maria Teresa                                </v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>506</v>
       </c>
@@ -12801,8 +13451,12 @@
       <c r="C164" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E164" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B164)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Salceda, Valentina                                 </v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>508</v>
       </c>
@@ -12812,8 +13466,12 @@
       <c r="C165" s="5">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E165" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B165)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Salmones Gutierrez, M. Regina</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>510</v>
       </c>
@@ -12823,8 +13481,12 @@
       <c r="C166" s="5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B166)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Teja, Ana Maria                                    </v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>512</v>
       </c>
@@ -12834,8 +13496,12 @@
       <c r="C167" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B167)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Teja, Juan Jose                                    </v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>514</v>
       </c>
@@ -12845,8 +13511,12 @@
       <c r="C168" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B168)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garcia Vallejo, Paula                                     </v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>516</v>
       </c>
@@ -12856,8 +13526,12 @@
       <c r="C169" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B169)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garrido Bordetas, Iban                                    </v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>518</v>
       </c>
@@ -12867,8 +13541,12 @@
       <c r="C170" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B170)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Garzon Gutierrez, Soledad                                 </v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>520</v>
       </c>
@@ -12878,8 +13556,12 @@
       <c r="C171" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B171)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Giraldez Camus, Maria Pilar                               </v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>522</v>
       </c>
@@ -12889,8 +13571,12 @@
       <c r="C172" s="5">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B172)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Girao Campaña, Sonia                                      </v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>524</v>
       </c>
@@ -12900,8 +13586,12 @@
       <c r="C173" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B173)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Goitia Gonzalez, Maria  Encarnación                              </v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>526</v>
       </c>
@@ -12911,8 +13601,12 @@
       <c r="C174" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B174)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Cagigas, Elisa                                      </v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>528</v>
       </c>
@@ -12922,8 +13616,12 @@
       <c r="C175" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B175)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Cavia, Tamara                                       </v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>530</v>
       </c>
@@ -12933,8 +13631,12 @@
       <c r="C176" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B176)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Fernandez, Francisca                                </v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>532</v>
       </c>
@@ -12944,8 +13646,12 @@
       <c r="C177" s="5">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B177)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Lombilla, Milagros                                  </v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>534</v>
       </c>
@@ -12955,8 +13661,12 @@
       <c r="C178" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B178)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Ruiz, Ruth                                          </v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>536</v>
       </c>
@@ -12966,8 +13676,12 @@
       <c r="C179" s="5">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B179)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gómez Segurola, María Rosario</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>538</v>
       </c>
@@ -12977,8 +13691,12 @@
       <c r="C180" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E180" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B180)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Serrano, Carmen                                     </v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>540</v>
       </c>
@@ -12988,8 +13706,12 @@
       <c r="C181" s="5">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B181)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gomez Vallejo, Maria Victoria                             </v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>542</v>
       </c>
@@ -12999,8 +13721,12 @@
       <c r="C182" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B182)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Ceballos, M. Milagros                            </v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>544</v>
       </c>
@@ -13010,8 +13736,12 @@
       <c r="C183" s="5">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B183)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Cos, Maria Rosa                                  </v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>546</v>
       </c>
@@ -13021,8 +13751,12 @@
       <c r="C184" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B184)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Garcia, Manuel                                   </v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>548</v>
       </c>
@@ -13032,8 +13766,12 @@
       <c r="C185" s="5">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E185" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B185)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Hoyos, Noelia                                    </v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>550</v>
       </c>
@@ -13043,8 +13781,12 @@
       <c r="C186" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B186)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Martinez, Leticia                                </v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>552</v>
       </c>
@@ -13054,8 +13796,12 @@
       <c r="C187" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E187" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B187)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Pereda, Nuria                                    </v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>554</v>
       </c>
@@ -13065,8 +13811,12 @@
       <c r="C188" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E188" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B188)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Regueiro, Irache                                 </v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>556</v>
       </c>
@@ -13076,8 +13826,12 @@
       <c r="C189" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E189" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B189)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Rodriguez, Joanna                                </v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>558</v>
       </c>
@@ -13087,8 +13841,12 @@
       <c r="C190" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B190)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Roiz, Maria Leticia                              </v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>560</v>
       </c>
@@ -13098,8 +13856,12 @@
       <c r="C191" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B191)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Rozas, Maria Jesus                               </v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>562</v>
       </c>
@@ -13109,8 +13871,12 @@
       <c r="C192" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E192" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B192)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Ruiz, Maria Teresa                               </v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>564</v>
       </c>
@@ -13120,8 +13886,12 @@
       <c r="C193" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E193" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B193)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Vega, Maria Jesus                                </v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>566</v>
       </c>
@@ -13131,8 +13901,12 @@
       <c r="C194" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E194" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B194)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gonzalez Viar, Beatriz                                    </v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>568</v>
       </c>
@@ -13142,8 +13916,12 @@
       <c r="C195" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B195)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gozalo Marguello, Ana Belen                               </v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>570</v>
       </c>
@@ -13153,8 +13931,12 @@
       <c r="C196" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B196)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Grande Grande, M. Del Rosario                             </v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>572</v>
       </c>
@@ -13164,8 +13946,12 @@
       <c r="C197" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E197" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B197)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Guillaron Nuñez, Blanca Maria                             </v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>574</v>
       </c>
@@ -13175,8 +13961,12 @@
       <c r="C198" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E198" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B198)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Arguello, Soraya                                </v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>576</v>
       </c>
@@ -13186,8 +13976,12 @@
       <c r="C199" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B199)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Diaz, Jesus Lilio                               </v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>578</v>
       </c>
@@ -13197,8 +13991,12 @@
       <c r="C200" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B200)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Gomez, Maria Dolores                            </v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>580</v>
       </c>
@@ -13208,8 +14006,12 @@
       <c r="C201" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B201)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Martinez, Isabel Cintia                         </v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>582</v>
       </c>
@@ -13219,8 +14021,12 @@
       <c r="C202" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E202" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B202)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Martinez, Maria Del Mar                         </v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>584</v>
       </c>
@@ -13230,8 +14036,12 @@
       <c r="C203" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E203" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B203)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Martinez, Maria Sol                             </v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>586</v>
       </c>
@@ -13241,8 +14051,12 @@
       <c r="C204" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E204" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B204)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Perez, Nelly                                    </v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>588</v>
       </c>
@@ -13252,8 +14066,12 @@
       <c r="C205" s="5">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B205)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Rodriguez, Luisa Maria                          </v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>590</v>
       </c>
@@ -13263,8 +14081,12 @@
       <c r="C206" s="5">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E206" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B206)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Sainz-Pardo, Maria Luisa                        </v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>592</v>
       </c>
@@ -13274,8 +14096,12 @@
       <c r="C207" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B207)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Santamaria, Piedad                              </v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>594</v>
       </c>
@@ -13285,8 +14111,12 @@
       <c r="C208" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B208)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutierrez Vigeriago, Teresa                               </v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>596</v>
       </c>
@@ -13296,8 +14126,12 @@
       <c r="C209" s="5">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E209" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B209)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Gutiez Fuentecilla, Sandra Maria                          </v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>598</v>
       </c>
@@ -13307,8 +14141,12 @@
       <c r="C210" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B210)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hernando Castrillo, Maria Angeles                         </v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>600</v>
       </c>
@@ -13318,8 +14156,12 @@
       <c r="C211" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E211" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B211)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrera Basterretche, Luis Jaime                          </v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>602</v>
       </c>
@@ -13329,8 +14171,12 @@
       <c r="C212" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E212" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B212)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrera Entrecanales, Marta                               </v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>604</v>
       </c>
@@ -13340,8 +14186,12 @@
       <c r="C213" s="5">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B213)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herreria Saez, Gema                                       </v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>606</v>
       </c>
@@ -13351,8 +14201,12 @@
       <c r="C214" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E214" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B214)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herreria Sanchez, Araceli                                 </v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>608</v>
       </c>
@@ -13362,8 +14216,12 @@
       <c r="C215" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B215)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrero Garcia, M. Del Rosario                            </v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>610</v>
       </c>
@@ -13373,8 +14231,12 @@
       <c r="C216" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B216)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrero Laso, Sofia                                       </v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>612</v>
       </c>
@@ -13384,8 +14246,12 @@
       <c r="C217" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E217" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B217)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrero Ramos, Lucia Fatima                               </v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>614</v>
       </c>
@@ -13395,8 +14261,12 @@
       <c r="C218" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E218" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B218)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herrero Suarez, Maria Nieves                              </v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>616</v>
       </c>
@@ -13406,8 +14276,12 @@
       <c r="C219" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B219)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Herreros Blanco, Maria Carmen                             </v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>618</v>
       </c>
@@ -13417,8 +14291,12 @@
       <c r="C220" s="5">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B220)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hervas Briz, Cristina                                     </v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>620</v>
       </c>
@@ -13428,8 +14306,12 @@
       <c r="C221" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B221)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hormaechea Mirones, Maria Luisa                           </v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>622</v>
       </c>
@@ -13439,8 +14321,12 @@
       <c r="C222" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B222)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hoyas Pinadero, Maria Isabel                              </v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>624</v>
       </c>
@@ -13450,8 +14336,12 @@
       <c r="C223" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B223)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hoyo Arce, Maria Lourdes                                  </v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>626</v>
       </c>
@@ -13461,8 +14351,12 @@
       <c r="C224" s="5">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B224)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Hoyo Arce, Sara                                           </v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>628</v>
       </c>
@@ -13472,8 +14366,12 @@
       <c r="C225" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E225" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B225)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Huidobro Sierra, Marta Maria                              </v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>630</v>
       </c>
@@ -13483,8 +14381,12 @@
       <c r="C226" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B226)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ibars Velasco, Maria Rosario                              </v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>632</v>
       </c>
@@ -13494,8 +14396,12 @@
       <c r="C227" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E227" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B227)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Iglesias Calva, Carmen                                    </v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>634</v>
       </c>
@@ -13505,8 +14411,12 @@
       <c r="C228" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E228" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B228)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Iglesias Galvan, Maria Jose                               </v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>636</v>
       </c>
@@ -13516,8 +14426,12 @@
       <c r="C229" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B229)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Incera Martinez, Maria Pilar                              </v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>638</v>
       </c>
@@ -13527,8 +14441,12 @@
       <c r="C230" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B230)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ingelmo Garcia, Maria Carmen                              </v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>640</v>
       </c>
@@ -13538,8 +14456,12 @@
       <c r="C231" s="5">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B231)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Jimenez Jimenez, Honorina                                 </v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>642</v>
       </c>
@@ -13549,8 +14471,12 @@
       <c r="C232" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B232)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Jimenez Perez, Maria Ines                                 </v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>644</v>
       </c>
@@ -13560,8 +14486,12 @@
       <c r="C233" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B233)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Juana Tejedor, Ana Maria De                               </v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>646</v>
       </c>
@@ -13571,8 +14501,12 @@
       <c r="C234" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B234)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lagüera Pino, M. Magdalena                                </v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>648</v>
       </c>
@@ -13582,8 +14516,12 @@
       <c r="C235" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B235)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Laguera Pino, Maria Isabel                                </v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>650</v>
       </c>
@@ -13593,8 +14531,12 @@
       <c r="C236" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B236)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lameiro Sanchez, Rosario                                  </v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>652</v>
       </c>
@@ -13604,8 +14546,12 @@
       <c r="C237" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B237)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lanza Cadelo, Maria Cruz                                  </v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>654</v>
       </c>
@@ -13615,8 +14561,12 @@
       <c r="C238" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E238" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B238)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lanza Mendez, Rebeca                                      </v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>656</v>
       </c>
@@ -13626,8 +14576,12 @@
       <c r="C239" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B239)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Laso San Sebastian, Pilar Ines                            </v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>658</v>
       </c>
@@ -13637,8 +14591,12 @@
       <c r="C240" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B240)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lastra Martinez, Maria Blanca                             </v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>660</v>
       </c>
@@ -13648,8 +14606,12 @@
       <c r="C241" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B241)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lastra Vega, Elena                                        </v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>662</v>
       </c>
@@ -13659,8 +14621,12 @@
       <c r="C242" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B242)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lavin Eguia, Maria Dolores                                </v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>664</v>
       </c>
@@ -13670,8 +14636,12 @@
       <c r="C243" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B243)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Laya Seijas, Maria Carmen                                 </v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>666</v>
       </c>
@@ -13681,8 +14651,12 @@
       <c r="C244" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B244)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lazcano Romaña, Agustina                                  </v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>668</v>
       </c>
@@ -13692,8 +14666,12 @@
       <c r="C245" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B245)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lazcano Romaña, Carmen                                    </v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>670</v>
       </c>
@@ -13703,8 +14681,12 @@
       <c r="C246" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B246)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Liaño Pereda, Sonia                                       </v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>672</v>
       </c>
@@ -13714,8 +14696,12 @@
       <c r="C247" s="5">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E247" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B247)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Llama San Emeterio, Juan Jose De La                       </v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>674</v>
       </c>
@@ -13725,8 +14711,12 @@
       <c r="C248" s="5">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B248)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Llames Brizuela, Ana Maria                                </v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>676</v>
       </c>
@@ -13736,8 +14726,12 @@
       <c r="C249" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B249)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Llana Polanco, Elena                                      </v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>678</v>
       </c>
@@ -13747,8 +14741,12 @@
       <c r="C250" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B250)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lledias Villa, Alfonso Ramon                              </v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>680</v>
       </c>
@@ -13758,8 +14756,12 @@
       <c r="C251" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B251)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Arenas, Maria Jose                                  </v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>682</v>
       </c>
@@ -13769,8 +14771,12 @@
       <c r="C252" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B252)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Arriola, Aurelia                                    </v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>684</v>
       </c>
@@ -13780,8 +14786,12 @@
       <c r="C253" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B253)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Camino, Marta                                       </v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>686</v>
       </c>
@@ -13791,8 +14801,12 @@
       <c r="C254" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B254)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Campa, Maria Rosario                                </v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>688</v>
       </c>
@@ -13802,8 +14816,12 @@
       <c r="C255" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B255)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Campo, Maria Teresa                                 </v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>690</v>
       </c>
@@ -13813,8 +14831,12 @@
       <c r="C256" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B256)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Fernandez, Maria Jesus                              </v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>692</v>
       </c>
@@ -13824,8 +14846,12 @@
       <c r="C257" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E257" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B257)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Fuente, Covadonga                                   </v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>694</v>
       </c>
@@ -13835,8 +14861,12 @@
       <c r="C258" s="5">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E258" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B258)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Fuente, Eva                                         </v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>696</v>
       </c>
@@ -13846,8 +14876,12 @@
       <c r="C259" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B259)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Fuente, Teresa                                      </v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>698</v>
       </c>
@@ -13857,8 +14891,12 @@
       <c r="C260" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B260)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Fuente, Violeta                                     </v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>700</v>
       </c>
@@ -13868,8 +14906,12 @@
       <c r="C261" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B261)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Garcia, Maria Adela                                 </v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>702</v>
       </c>
@@ -13879,8 +14921,12 @@
       <c r="C262" s="5">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E262" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B262)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lopez Montes, Clara Maria                                 </v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>704</v>
       </c>
@@ -13890,8 +14936,12 @@
       <c r="C263" s="5">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E263" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B263)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lorenzo Cuesta, Jose Manuel                               </v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>706</v>
       </c>
@@ -13901,8 +14951,12 @@
       <c r="C264" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E264" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B264)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Lucas Pestaña, Maria Isabel                               </v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>708</v>
       </c>
@@ -13912,8 +14966,12 @@
       <c r="C265" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E265" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B265)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Luengo Herrero, Maria Herlinda                            </v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>710</v>
       </c>
@@ -13923,8 +14981,12 @@
       <c r="C266" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E266" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B266)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Luis Ruiz, Maria Begoña De                                </v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>712</v>
       </c>
@@ -13934,8 +14996,12 @@
       <c r="C267" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E267" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B267)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Magaldi Ruiz, Enma                                        </v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>714</v>
       </c>
@@ -13945,8 +15011,12 @@
       <c r="C268" s="5">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E268" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B268)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Marcos Gutierrez, Ana Isabel                              </v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>716</v>
       </c>
@@ -13956,8 +15026,12 @@
       <c r="C269" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E269" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B269)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Marque Oceja, Rebeca                                      </v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>718</v>
       </c>
@@ -13967,8 +15041,12 @@
       <c r="C270" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E270" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B270)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Basco, Maria Jesus                                 </v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>720</v>
       </c>
@@ -13978,8 +15056,12 @@
       <c r="C271" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E271" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B271)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Gutierrez, Maria Carmen                            </v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>722</v>
       </c>
@@ -13989,8 +15071,12 @@
       <c r="C272" s="5">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B272)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Lopez, Yolanda                                     </v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>724</v>
       </c>
@@ -14000,8 +15086,12 @@
       <c r="C273" s="5">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E273" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B273)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Macias, Juan Enrique                               </v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>726</v>
       </c>
@@ -14011,8 +15101,12 @@
       <c r="C274" s="5">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E274" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B274)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Monje, M. Luisa                                    </v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>728</v>
       </c>
@@ -14022,8 +15116,12 @@
       <c r="C275" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E275" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B275)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Parra, Matilde                                     </v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>730</v>
       </c>
@@ -14033,8 +15131,12 @@
       <c r="C276" s="5">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E276" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B276)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin San Martin, Carmen I.                              </v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>732</v>
       </c>
@@ -14044,8 +15146,12 @@
       <c r="C277" s="5">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E277" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B277)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin San Martin, Maria Angeles                          </v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>734</v>
       </c>
@@ -14055,8 +15161,12 @@
       <c r="C278" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E278" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B278)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martin Valle, Maria Mercedes                              </v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>736</v>
       </c>
@@ -14066,8 +15176,12 @@
       <c r="C279" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E279" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B279)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martinez Agudo, Modesta                                   </v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>738</v>
       </c>
@@ -14077,8 +15191,12 @@
       <c r="C280" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E280" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B280)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martinez Cagigal, Maria Pilar                             </v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>740</v>
       </c>
@@ -14088,8 +15206,12 @@
       <c r="C281" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B281)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martinez Palomero, M. Ascension                           </v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>742</v>
       </c>
@@ -14099,8 +15221,12 @@
       <c r="C282" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E282" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B282)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Martinez Toca, Maria Jesus                                </v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>744</v>
       </c>
@@ -14110,8 +15236,12 @@
       <c r="C283" s="5">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E283" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B283)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Mazas Marquez, Maria Del Pilar                            </v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>746</v>
       </c>
@@ -14121,8 +15251,12 @@
       <c r="C284" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E284" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B284)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Mendez Ruiz, Concepcion                                   </v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>748</v>
       </c>
@@ -14132,8 +15266,12 @@
       <c r="C285" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E285" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B285)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Meneses Velarde, Maria Mercedes                           </v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>750</v>
       </c>
@@ -14143,8 +15281,12 @@
       <c r="C286" s="5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E286" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B286)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Merayo Solis, Maria Begoña                                </v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>752</v>
       </c>
@@ -14154,8 +15296,12 @@
       <c r="C287" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B287)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Merino Garcia, Maria Luisa                                </v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>754</v>
       </c>
@@ -14165,8 +15311,12 @@
       <c r="C288" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E288" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B288)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Miguel Gonzalez, Marina De                                </v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>756</v>
       </c>
@@ -14176,8 +15326,12 @@
       <c r="C289" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E289" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B289)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Miyar Fernandez, Margarita                                </v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>758</v>
       </c>
@@ -14187,8 +15341,12 @@
       <c r="C290" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E290" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B290)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Molinos Espadas, Maria Angeles                            </v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>760</v>
       </c>
@@ -14198,8 +15356,12 @@
       <c r="C291" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E291" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B291)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Monge Vivar, Alicia                                       </v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>762</v>
       </c>
@@ -14209,8 +15371,12 @@
       <c r="C292" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B292)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Montes Bustillo, Noelia                                   </v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>764</v>
       </c>
@@ -14220,8 +15386,12 @@
       <c r="C293" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E293" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B293)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Moran Moran, Antonina                                     </v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>766</v>
       </c>
@@ -14231,8 +15401,12 @@
       <c r="C294" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B294)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Moroso Medialdea, Beatriz                                 </v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>768</v>
       </c>
@@ -14242,8 +15416,12 @@
       <c r="C295" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E295" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B295)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Movellan Abaroa, Carlos                                   </v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>770</v>
       </c>
@@ -14253,8 +15431,12 @@
       <c r="C296" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E296" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B296)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Mugica Poo, Aurora                                        </v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>772</v>
       </c>
@@ -14264,8 +15446,12 @@
       <c r="C297" s="5">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E297" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B297)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Nava Aguado, Maria                                        </v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>774</v>
       </c>
@@ -14275,8 +15461,12 @@
       <c r="C298" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E298" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B298)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Noriega Gutierrez, Alejandro Jesus                        </v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>776</v>
       </c>
@@ -14286,8 +15476,12 @@
       <c r="C299" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E299" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B299)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Nuñez Arango, Maria Paz                                   </v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>778</v>
       </c>
@@ -14297,8 +15491,12 @@
       <c r="C300" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B300)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Nuñez Ordoñez, Olga                                       </v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>780</v>
       </c>
@@ -14308,8 +15506,12 @@
       <c r="C301" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B301)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Obeso Garcia, Eva                                         </v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>782</v>
       </c>
@@ -14319,8 +15521,12 @@
       <c r="C302" s="5">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B302)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Obregon Perez, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>784</v>
       </c>
@@ -14330,8 +15536,12 @@
       <c r="C303" s="5">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B303)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ochoa Oceja, Juan Manuel                                  </v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>786</v>
       </c>
@@ -14341,8 +15551,12 @@
       <c r="C304" s="5">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B304)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ochogavias Gonzalez, Maria Dolores                        </v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>788</v>
       </c>
@@ -14352,8 +15566,12 @@
       <c r="C305" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B305)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Olea Revilla, Adela                                       </v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>790</v>
       </c>
@@ -14363,8 +15581,12 @@
       <c r="C306" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B306)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ordoñez Rubio, Rosa Maria                                 </v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>792</v>
       </c>
@@ -14374,8 +15596,12 @@
       <c r="C307" s="5">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B307)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ortega Barrio, M. Concepcion                              </v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>794</v>
       </c>
@@ -14385,8 +15611,12 @@
       <c r="C308" s="5">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E308" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B308)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ortuño Gancedo, Marina                                    </v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>796</v>
       </c>
@@ -14396,8 +15626,12 @@
       <c r="C309" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E309" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B309)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Osle Gomez, Maria Jesus                                   </v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>798</v>
       </c>
@@ -14407,8 +15641,12 @@
       <c r="C310" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B310)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palacio Perez, Ana                                        </v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>800</v>
       </c>
@@ -14418,8 +15656,12 @@
       <c r="C311" s="5">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B311)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palacios De Gurtubay, Carmen                              </v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>802</v>
       </c>
@@ -14429,8 +15671,12 @@
       <c r="C312" s="5">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B312)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palacios Gonzalez, Esperanza                              </v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>804</v>
       </c>
@@ -14440,8 +15686,12 @@
       <c r="C313" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B313)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palacios Oyarbide, Berta                                  </v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>806</v>
       </c>
@@ -14451,8 +15701,12 @@
       <c r="C314" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B314)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palazuelo Perez, Mercedes                                 </v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>808</v>
       </c>
@@ -14462,8 +15716,12 @@
       <c r="C315" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B315)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Palencia Gonzalez, Noelia                                 </v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>810</v>
       </c>
@@ -14473,8 +15731,12 @@
       <c r="C316" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B316)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Paradelo Renteria, Luisa Maria                            </v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>812</v>
       </c>
@@ -14484,8 +15746,12 @@
       <c r="C317" s="5">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E317" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B317)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Parrado Nsang, Carmen                                     </v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>814</v>
       </c>
@@ -14495,8 +15761,12 @@
       <c r="C318" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E318" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B318)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Parrado Villegas, Maria Lorena                            </v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>816</v>
       </c>
@@ -14506,8 +15776,12 @@
       <c r="C319" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E319" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B319)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Payo Bahillo, M. Esther                                   </v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>818</v>
       </c>
@@ -14517,8 +15791,12 @@
       <c r="C320" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E320" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B320)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Pelaz Silva, Maria Mar                                    </v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>820</v>
       </c>
@@ -14528,8 +15806,12 @@
       <c r="C321" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E321" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B321)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Pereda Barrio, Maria Angela                               </v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>822</v>
       </c>
@@ -14539,8 +15821,12 @@
       <c r="C322" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B322)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Del Olmo, Maria Isabel                              </v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>824</v>
       </c>
@@ -14550,8 +15836,12 @@
       <c r="C323" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B323)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Del Olmo, Maria Yolanda                             </v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>826</v>
       </c>
@@ -14561,8 +15851,12 @@
       <c r="C324" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E324" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B324)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Garcia, Sonia                                       </v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>828</v>
       </c>
@@ -14572,8 +15866,12 @@
       <c r="C325" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E325" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B325)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Gonzalez, Maria                                     </v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>830</v>
       </c>
@@ -14583,8 +15881,12 @@
       <c r="C326" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E326" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B326)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Jorrin, Julia Maria                                 </v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>832</v>
       </c>
@@ -14594,8 +15896,12 @@
       <c r="C327" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E327" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B327)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Jorrin, Maria Jose                                  </v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>834</v>
       </c>
@@ -14605,8 +15911,12 @@
       <c r="C328" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E328" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B328)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Menendez, Maria Teresa                              </v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>836</v>
       </c>
@@ -14616,8 +15926,12 @@
       <c r="C329" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E329" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B329)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Molinos, Graciela                                   </v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>838</v>
       </c>
@@ -14627,8 +15941,12 @@
       <c r="C330" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B330)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Pelayo, Matilde                                     </v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>840</v>
       </c>
@@ -14638,8 +15956,12 @@
       <c r="C331" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E331" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B331)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Prado, Rocio                                        </v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>842</v>
       </c>
@@ -14649,8 +15971,12 @@
       <c r="C332" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E332" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B332)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Perez Sampedro, Maria Filomena                            </v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>844</v>
       </c>
@@ -14660,8 +15986,12 @@
       <c r="C333" s="5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E333" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B333)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Porras Sanchez, Maria Carmen                              </v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>846</v>
       </c>
@@ -14671,8 +16001,12 @@
       <c r="C334" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E334" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B334)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Portilla Quilez, Maria Leoncia                            </v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>848</v>
       </c>
@@ -14682,8 +16016,12 @@
       <c r="C335" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E335" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B335)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Portilla Tortosa, Maria Rocio                             </v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>850</v>
       </c>
@@ -14693,8 +16031,12 @@
       <c r="C336" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E336" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B336)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Prellezo Urresti, Mercedes                                </v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>852</v>
       </c>
@@ -14704,8 +16046,12 @@
       <c r="C337" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B337)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Presa Bajo, Marina                                        </v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>854</v>
       </c>
@@ -14715,8 +16061,12 @@
       <c r="C338" s="5">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E338" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B338)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Prieto Martinez, Maria Carmen                             </v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>856</v>
       </c>
@@ -14726,8 +16076,12 @@
       <c r="C339" s="5">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E339" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B339)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Puente Ferreño, Marta                                     </v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>858</v>
       </c>
@@ -14737,8 +16091,12 @@
       <c r="C340" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E340" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B340)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Puente Varona, M. Encarnacion                            </v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>860</v>
       </c>
@@ -14748,8 +16106,12 @@
       <c r="C341" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E341" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B341)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Quintana Cobo, Margarita                                  </v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>862</v>
       </c>
@@ -14759,8 +16121,12 @@
       <c r="C342" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E342" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B342)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Quintana Cobo, Mercedes                                   </v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>864</v>
       </c>
@@ -14770,8 +16136,12 @@
       <c r="C343" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E343" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B343)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Quintana Goyeneche, Jose Javier                           </v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1</v>
       </c>
@@ -14781,8 +16151,12 @@
       <c r="C344" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E344" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B344)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Quintana Rivas, Emma Luisa                                </v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>3</v>
       </c>
@@ -14792,8 +16166,12 @@
       <c r="C345" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E345" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B345)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Quintana Rivas, Julia Josefa                              </v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>5</v>
       </c>
@@ -14803,8 +16181,12 @@
       <c r="C346" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B346)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rasilla Diego, Ana Isabel                                 </v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>7</v>
       </c>
@@ -14814,8 +16196,12 @@
       <c r="C347" s="5">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B347)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Real Ruiz-Canales, Maria Carmen                           </v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>9</v>
       </c>
@@ -14825,8 +16211,12 @@
       <c r="C348" s="5">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B348)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rebanal Gonzalez, Maria Lourdes                           </v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>11</v>
       </c>
@@ -14836,8 +16226,12 @@
       <c r="C349" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E349" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B349)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Renteria Puente, Carmen                                   </v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>13</v>
       </c>
@@ -14847,8 +16241,12 @@
       <c r="C350" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E350" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B350)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Retorta Manrique, Carmen                                  </v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>15</v>
       </c>
@@ -14858,8 +16256,12 @@
       <c r="C351" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E351" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B351)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Revuelta Alonso, Maria Pilar                              </v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>17</v>
       </c>
@@ -14869,8 +16271,12 @@
       <c r="C352" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E352" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B352)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rincon Jimenez, Maria Eugenia                             </v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>19</v>
       </c>
@@ -14880,8 +16286,12 @@
       <c r="C353" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E353" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B353)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rio Alcedo, Carmen Del                                    </v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>21</v>
       </c>
@@ -14891,8 +16301,12 @@
       <c r="C354" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E354" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B354)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rios Ramon, Maria Celsa                                   </v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>23</v>
       </c>
@@ -14902,8 +16316,12 @@
       <c r="C355" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E355" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B355)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rivas Barcena, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>25</v>
       </c>
@@ -14913,8 +16331,12 @@
       <c r="C356" s="5">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E356" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B356)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rivas Villar, Maria Jesus                                 </v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>27</v>
       </c>
@@ -14924,8 +16346,12 @@
       <c r="C357" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B357)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rivera Perez, Carmen Gudelia                              </v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>29</v>
       </c>
@@ -14935,8 +16361,12 @@
       <c r="C358" s="5">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B358)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rivero Celis, Maria Angeles                               </v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>31</v>
       </c>
@@ -14946,8 +16376,12 @@
       <c r="C359" s="5">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E359" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B359)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rivero Merino, Yolanda                                    </v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>33</v>
       </c>
@@ -14957,8 +16391,12 @@
       <c r="C360" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B360)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Robles Saiz, Almudena                                     </v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>35</v>
       </c>
@@ -14968,8 +16406,12 @@
       <c r="C361" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E361" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B361)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Garcia, Maria Jesus                             </v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>37</v>
       </c>
@@ -14979,8 +16421,12 @@
       <c r="C362" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B362)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Gutierrez, Diana                                </v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>39</v>
       </c>
@@ -14990,8 +16436,12 @@
       <c r="C363" s="5">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E363" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B363)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Prieto, Beatriz                                 </v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>41</v>
       </c>
@@ -15001,8 +16451,12 @@
       <c r="C364" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B364)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Rodriguez, Maria Herminia                       </v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>43</v>
       </c>
@@ -15012,8 +16466,12 @@
       <c r="C365" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B365)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Santervas, Marta                                </v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>45</v>
       </c>
@@ -15023,8 +16481,12 @@
       <c r="C366" s="5">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B366)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rodriguez Viadero, Maria Angeles                          </v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>47</v>
       </c>
@@ -15034,8 +16496,12 @@
       <c r="C367" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E367" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B367)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Romano Ruiz, Maria Puerto                                 </v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>49</v>
       </c>
@@ -15045,8 +16511,12 @@
       <c r="C368" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E368" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B368)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rosas Cacho, Elvira                                       </v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>51</v>
       </c>
@@ -15056,8 +16526,12 @@
       <c r="C369" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E369" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B369)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruesga Jorde, Maria Encarnacion                            </v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>53</v>
       </c>
@@ -15067,8 +16541,12 @@
       <c r="C370" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E370" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B370)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruidiaz Rubio, Maria Socorro                              </v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>55</v>
       </c>
@@ -15078,8 +16556,12 @@
       <c r="C371" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E371" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B371)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruiz Carriles, Maria Angeles                              </v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>57</v>
       </c>
@@ -15089,8 +16571,12 @@
       <c r="C372" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E372" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B372)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruiz Fernandez, Dolores                                   </v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>59</v>
       </c>
@@ -15100,8 +16586,12 @@
       <c r="C373" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E373" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B373)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruiz Fernandez, Maria Amparo                              </v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>61</v>
       </c>
@@ -15111,8 +16601,12 @@
       <c r="C374" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E374" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B374)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruiz Peña, Adoracion                                      </v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>63</v>
       </c>
@@ -15122,8 +16616,12 @@
       <c r="C375" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E375" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B375)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Ruiz Urueña, Estefania                                    </v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>65</v>
       </c>
@@ -15133,8 +16631,12 @@
       <c r="C376" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E376" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B376)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Rumayor Valdes, Ana Maria                                 </v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>67</v>
       </c>
@@ -15144,8 +16646,12 @@
       <c r="C377" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E377" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B377)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sainz Ortiz, Rosa Eva                                     </v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>69</v>
       </c>
@@ -15155,8 +16661,12 @@
       <c r="C378" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E378" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B378)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Camacho, Cesar Fernando                              </v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>71</v>
       </c>
@@ -15166,8 +16676,12 @@
       <c r="C379" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E379" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B379)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Fernandez, Carmen                                    </v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>73</v>
       </c>
@@ -15177,8 +16691,12 @@
       <c r="C380" s="5">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E380" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B380)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Fernandez, Fatima                                    </v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>75</v>
       </c>
@@ -15188,8 +16706,12 @@
       <c r="C381" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E381" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B381)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Gutierrez, Ana Maria                                 </v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>77</v>
       </c>
@@ -15199,8 +16721,12 @@
       <c r="C382" s="5">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E382" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B382)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Gutierrez, Maria Carmen                              </v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>79</v>
       </c>
@@ -15210,8 +16736,12 @@
       <c r="C383" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B383)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Muriedas, Carlos                               </v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>81</v>
       </c>
@@ -15221,8 +16751,12 @@
       <c r="C384" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E384" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B384)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Quijano, Elena                                       </v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>83</v>
       </c>
@@ -15232,8 +16766,12 @@
       <c r="C385" s="5">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E385" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B385)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Saiz Rodriguez, Ana Isabel                                </v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>85</v>
       </c>
@@ -15243,8 +16781,12 @@
       <c r="C386" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E386" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B386)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Salcines Roji, Maria Nuria                                </v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>87</v>
       </c>
@@ -15254,8 +16796,12 @@
       <c r="C387" s="5">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B387)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Salgado Gutierrez, Maria Esperanza                        </v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>89</v>
       </c>
@@ -15265,8 +16811,12 @@
       <c r="C388" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E388" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B388)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Samperio Calderon, Josefa                                 </v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>91</v>
       </c>
@@ -15276,8 +16826,12 @@
       <c r="C389" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E389" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B389)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Samperio Iglesias, Maria Asuncion                         </v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>93</v>
       </c>
@@ -15287,8 +16841,12 @@
       <c r="C390" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E390" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B390)),CHAR(160),""))</f>
+        <v xml:space="preserve"> San Emeterio Alonso, Gema                                 </v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>95</v>
       </c>
@@ -15298,8 +16856,12 @@
       <c r="C391" s="5">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E391" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B391)),CHAR(160),""))</f>
+        <v xml:space="preserve"> San Juan Lebeña, Mercedes                                 </v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>97</v>
       </c>
@@ -15309,8 +16871,12 @@
       <c r="C392" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E392" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B392)),CHAR(160),""))</f>
+        <v xml:space="preserve"> San Martin Corujo, Maria Violeta                          </v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>99</v>
       </c>
@@ -15320,8 +16886,12 @@
       <c r="C393" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E393" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B393)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Gutierrez, Maria Sefarina                         </v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>101</v>
       </c>
@@ -15331,8 +16901,12 @@
       <c r="C394" s="5">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E394" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B394)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Martinez, Roberto                                 </v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>103</v>
       </c>
@@ -15342,8 +16916,12 @@
       <c r="C395" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E395" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B395)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Mosquera, Ana                                     </v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>105</v>
       </c>
@@ -15353,8 +16931,12 @@
       <c r="C396" s="5">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E396" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B396)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Sanchez, Maria Angeles                            </v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>107</v>
       </c>
@@ -15364,8 +16946,12 @@
       <c r="C397" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E397" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B397)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Sosa, Maria Luisa                                 </v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>109</v>
       </c>
@@ -15375,8 +16961,12 @@
       <c r="C398" s="5">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E398" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B398)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Sosa, Maria Matilde                               </v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>111</v>
       </c>
@@ -15386,8 +16976,12 @@
       <c r="C399" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E399" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B399)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Tubau, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>113</v>
       </c>
@@ -15397,8 +16991,12 @@
       <c r="C400" s="5">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E400" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B400)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sanchez Villar, Irene                                     </v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>115</v>
       </c>
@@ -15408,8 +17006,12 @@
       <c r="C401" s="5">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E401" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B401)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Santiago Gonzalez, Pilar                                  </v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>117</v>
       </c>
@@ -15419,8 +17021,12 @@
       <c r="C402" s="5">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E402" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B402)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Santos Fernandez, Lucia                                   </v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>119</v>
       </c>
@@ -15430,8 +17036,12 @@
       <c r="C403" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E403" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B403)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sañudo Trevilla, Ana Belen                                </v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>121</v>
       </c>
@@ -15441,8 +17051,12 @@
       <c r="C404" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E404" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B404)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Serdio Diego, Angelita                                    </v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>123</v>
       </c>
@@ -15452,8 +17066,12 @@
       <c r="C405" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E405" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B405)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Setien Miguel, Maria  Carmen                              </v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>125</v>
       </c>
@@ -15463,8 +17081,12 @@
       <c r="C406" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E406" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B406)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sierra Guemes, Raquel                                     </v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>127</v>
       </c>
@@ -15474,8 +17096,12 @@
       <c r="C407" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E407" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B407)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Sierra Gutierrez, Sonia                                   </v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>129</v>
       </c>
@@ -15485,8 +17111,12 @@
       <c r="C408" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E408" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B408)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Solar Negrete, Maria Carmen                               </v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>131</v>
       </c>
@@ -15496,8 +17126,12 @@
       <c r="C409" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E409" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B409)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Tagle Bolado, Pilar                                       </v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>133</v>
       </c>
@@ -15507,8 +17141,12 @@
       <c r="C410" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E410" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B410)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Terrones Haro, Maria Amelia                               </v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>135</v>
       </c>
@@ -15518,8 +17156,12 @@
       <c r="C411" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E411" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B411)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Toca Lopez, Nuria                                         </v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>137</v>
       </c>
@@ -15529,8 +17171,12 @@
       <c r="C412" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E412" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B412)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Torre Muñiz, Carmen Maria                                 </v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>139</v>
       </c>
@@ -15540,8 +17186,12 @@
       <c r="C413" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E413" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B413)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Uriarte Laso, Petra                                       </v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>141</v>
       </c>
@@ -15551,8 +17201,12 @@
       <c r="C414" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E414" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B414)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Valencia Bezos, Raquel                                    </v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>143</v>
       </c>
@@ -15562,8 +17216,12 @@
       <c r="C415" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E415" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B415)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Vazquez Mantecon, Maria Rosario                           </v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>145</v>
       </c>
@@ -15573,8 +17231,12 @@
       <c r="C416" s="5">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E416" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B416)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Vega Cuevas, Margarita                                    </v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>147</v>
       </c>
@@ -15584,8 +17246,12 @@
       <c r="C417" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E417" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B417)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Velarde Salces, Ramona                                    </v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>149</v>
       </c>
@@ -15595,8 +17261,12 @@
       <c r="C418" s="5">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E418" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B418)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Velasco Gonzalez, Maria Rosario                           </v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>151</v>
       </c>
@@ -15606,8 +17276,12 @@
       <c r="C419" s="5">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E419" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B419)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Velasco Gutierrez, Maria Teresa                           </v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>153</v>
       </c>
@@ -15617,8 +17291,12 @@
       <c r="C420" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E420" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B420)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Venero Coteron, Emiliana                                  </v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>155</v>
       </c>
@@ -15628,8 +17306,12 @@
       <c r="C421" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E421" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B421)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Venero Moreno, Isabel                                     </v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>157</v>
       </c>
@@ -15639,8 +17321,12 @@
       <c r="C422" s="5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E422" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B422)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Viadero Crespo, Carmen Rosa                               </v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>159</v>
       </c>
@@ -15650,8 +17336,12 @@
       <c r="C423" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E423" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B423)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villar Martin-Caro, Yolanda                               </v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>161</v>
       </c>
@@ -15661,8 +17351,12 @@
       <c r="C424" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E424" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B424)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villariño Mora, Catalina                                  </v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>163</v>
       </c>
@@ -15672,8 +17366,12 @@
       <c r="C425" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E425" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B425)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villariño Mora, Margarita                                 </v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>165</v>
       </c>
@@ -15683,8 +17381,12 @@
       <c r="C426" s="5">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E426" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B426)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villarraso Gomez, Maria Isabel                            </v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>167</v>
       </c>
@@ -15694,8 +17396,12 @@
       <c r="C427" s="5">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E427" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B427)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villazan Del Rio, Maria Carmen                            </v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>169</v>
       </c>
@@ -15705,8 +17411,12 @@
       <c r="C428" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E428" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B428)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villazan Del Rio, Maria Jose                              </v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>171</v>
       </c>
@@ -15716,8 +17426,12 @@
       <c r="C429" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E429" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B429)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Villegas Obregon, Roberto                                 </v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>173</v>
       </c>
@@ -15727,8 +17441,12 @@
       <c r="C430" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E430" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B430)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Zorrilla Pardo, Nieves                                    </v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>175</v>
       </c>
@@ -15738,8 +17456,12 @@
       <c r="C431" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E431" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B431)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Zorrilla Tajo, Vanesa                                     </v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>177</v>
       </c>
@@ -15748,6 +17470,10 @@
       </c>
       <c r="C432" s="5">
         <v>7.25</v>
+      </c>
+      <c r="E432" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(MID(Alumnos,FIND(".",Alumnos,1)+1,LEN(B432)),CHAR(160),""))</f>
+        <v xml:space="preserve"> Zuloaga Benito, Maria Pilar                               </v>
       </c>
     </row>
   </sheetData>
